--- a/tests/data.gui/test/nmr/dsn.3/kev.nmr.constants.data.xlsx
+++ b/tests/data.gui/test/nmr/dsn.3/kev.nmr.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -167,10 +167,13 @@
     <t xml:space="preserve">3.686279296875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134322188790162</t>
+    <t xml:space="preserve">0.134322188782338</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999904</t>
   </si>
 </sst>
 </file>
@@ -638,8 +641,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.999903967736437</v>
+      <c r="A2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1332,13 +1335,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.12003303118386e-22</v>
+        <v>0.000000000000000000000512003303118386</v>
       </c>
       <c r="B2" t="n">
         <v>0.00381612388664585</v>
       </c>
       <c r="C2" t="n">
-        <v>9.48799669734259e-21</v>
+        <v>0.00000000000000000000948799669734259</v>
       </c>
     </row>
     <row r="3">
@@ -1401,7 +1404,7 @@
         <v>0.00719849406409865</v>
       </c>
       <c r="B8" t="n">
-        <v>9.87286936003804e-05</v>
+        <v>0.0000987286936003804</v>
       </c>
       <c r="C8" t="n">
         <v>0.00345115399185555</v>
@@ -1412,7 +1415,7 @@
         <v>0.00885247275217933</v>
       </c>
       <c r="B9" t="n">
-        <v>7.97741622329053e-05</v>
+        <v>0.0000797741622329053</v>
       </c>
       <c r="C9" t="n">
         <v>0.00342930527570264</v>
@@ -1618,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0.00000000000000177635683940025</v>
       </c>
       <c r="E6" t="n">
         <v>0.0508392097101282</v>
@@ -1653,7 +1656,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>8.88178419700125e-16</v>
+        <v>0.000000000000000888178419700125</v>
       </c>
       <c r="E7" t="n">
         <v>-0.0199422260844679</v>
@@ -1688,7 +1691,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>8.88178419700125e-16</v>
+        <v>0.000000000000000888178419700125</v>
       </c>
       <c r="E8" t="n">
         <v>-0.00849578625768288</v>
@@ -1723,7 +1726,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>8.88178419700125e-16</v>
+        <v>0.000000000000000888178419700125</v>
       </c>
       <c r="E9" t="n">
         <v>-0.060745177870837</v>
@@ -1947,7 +1950,7 @@
         <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>2.24485888967553e-16</v>
+        <v>0.000000000000000224485888967553</v>
       </c>
       <c r="E6" t="n">
         <v>0.00621202464688761</v>
@@ -1956,7 +1959,7 @@
         <v>0.00296382883092117</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.9205162537032e-05</v>
+        <v>-0.000059205162537032</v>
       </c>
       <c r="H6" t="n">
         <v>-0.00105565261795101</v>
@@ -1982,7 +1985,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>2.42340632933186e-16</v>
+        <v>0.000000000000000242340632933186</v>
       </c>
       <c r="E7" t="n">
         <v>-0.0052953335327849</v>
@@ -2017,7 +2020,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>2.42340632933186e-16</v>
+        <v>0.000000000000000242340632933186</v>
       </c>
       <c r="E8" t="n">
         <v>-0.00227830149039498</v>
@@ -2052,7 +2055,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>1.97856631699738e-16</v>
+        <v>0.000000000000000197856631699738</v>
       </c>
       <c r="E9" t="n">
         <v>-0.0128316810035566</v>
